--- a/Data/progression/GTSE1_rawdata.xlsx
+++ b/Data/progression/GTSE1_rawdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/shared-1/HCSS2/Shared241/Home/u1574514/Experiments/ELR272/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/Manuscripts/In progress/Complex paper/Figures/Overnight progression/ELR328/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706B13B-82C9-6F41-8A3F-3108D3BFEC50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD58DDEE-FD13-E247-8A39-B8032AE74890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{C211AD62-5AE0-8141-B895-A9F060FD9BF8}"/>
+    <workbookView xWindow="42280" yWindow="760" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{C211AD62-5AE0-8141-B895-A9F060FD9BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="HeLa_control" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7D8BF1-AEB5-AD40-881A-178FF30785CD}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C91"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,153 +421,153 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>370</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>358</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3">
-        <v>67</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C15" s="3">
         <v>180</v>
@@ -575,919 +575,2753 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C16" s="3">
-        <v>27</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3">
-        <v>27</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C18" s="3">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C19" s="3">
-        <v>45</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="C20" s="3">
-        <v>28</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="B21" s="1">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="C21" s="3">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="C22" s="3">
-        <v>53</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="C23" s="3">
-        <v>48</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>337</v>
       </c>
       <c r="B24" s="1">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="B25" s="1">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="C25" s="3">
-        <v>33</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>36</v>
+        <v>372</v>
       </c>
       <c r="B26" s="1">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="C26" s="3">
-        <v>48</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>16</v>
+        <v>386</v>
       </c>
       <c r="B27" s="1">
-        <v>21</v>
+        <v>391</v>
       </c>
       <c r="C27" s="3">
-        <v>42</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="B31" s="1">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="C31" s="3">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="C32" s="3">
-        <v>37</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="B33" s="1">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="C33" s="3">
-        <v>63</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="C34" s="3">
-        <v>75</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B35" s="1">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="C35" s="3">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="B36" s="1">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="C36" s="3">
-        <v>25</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="B37" s="1">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="C37" s="3">
-        <v>250</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="B38" s="1">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="C38" s="3">
-        <v>250</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="B39" s="1">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="C39" s="3">
-        <v>27</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="B40" s="1">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="C40" s="3">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="B41" s="1">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="C41" s="3">
-        <v>112</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C48" s="3">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3">
-        <v>43</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="B50" s="1">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="C50" s="3">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="C51" s="3">
-        <v>30</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="B52" s="1">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="C52" s="3">
-        <v>63</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="B53" s="1">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="C53" s="3">
-        <v>215</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="B54" s="1">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="C54" s="3">
-        <v>129</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B55" s="1">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="C55" s="3">
-        <v>48</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="B56" s="1">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="C56" s="3">
-        <v>48</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="B57" s="1">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="C57" s="3">
-        <v>122</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C59" s="3">
-        <v>133</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C62" s="3">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B63" s="1">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C63" s="3">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C64" s="3">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B65" s="1">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C65" s="3">
-        <v>115</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="B66" s="1">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C66" s="3">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B67" s="1">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="C67" s="3">
-        <v>79</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="B68" s="1">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="C68" s="3">
-        <v>113</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="B69" s="1">
-        <v>111</v>
+        <v>385</v>
       </c>
       <c r="C69" s="3">
-        <v>118</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C72" s="3">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="C73" s="3">
-        <v>45</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="B74" s="1">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="C74" s="3">
-        <v>58</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="B75" s="1">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C75" s="3">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="B76" s="1">
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="C76" s="3">
-        <v>49</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B77" s="1">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="C77" s="3">
-        <v>178</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="B78" s="1">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="C78" s="3">
-        <v>58</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="B79" s="1">
-        <v>59</v>
+        <v>352</v>
       </c>
       <c r="C79" s="3">
-        <v>64</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C80" s="3">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C81" s="3">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B82" s="1">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C82" s="3">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C83" s="3">
-        <v>242</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C84" s="3">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="B85" s="1">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C85" s="3">
-        <v>215</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="B86" s="1">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="C86" s="3">
-        <v>298</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B87" s="1">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="C87" s="3">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="B88" s="1">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C88" s="3">
-        <v>94</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="B89" s="1">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="C89" s="3">
-        <v>111</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="B90" s="1">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="C90" s="3">
-        <v>106</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
+        <v>315</v>
+      </c>
+      <c r="B91" s="1">
+        <v>320</v>
+      </c>
+      <c r="C91" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>352</v>
+      </c>
+      <c r="B92" s="1">
+        <v>356</v>
+      </c>
+      <c r="C92" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1">
+        <v>51</v>
+      </c>
+      <c r="C93" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>71</v>
+      </c>
+      <c r="B94" s="1">
+        <v>75</v>
+      </c>
+      <c r="C94" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>119</v>
+      </c>
+      <c r="B95" s="1">
+        <v>124</v>
+      </c>
+      <c r="C95" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>278</v>
+      </c>
+      <c r="B96" s="1">
+        <v>286</v>
+      </c>
+      <c r="C96" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>330</v>
+      </c>
+      <c r="B97" s="1">
+        <v>334</v>
+      </c>
+      <c r="C97" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>361</v>
+      </c>
+      <c r="B98" s="1">
+        <v>365</v>
+      </c>
+      <c r="C98" s="3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>88</v>
+      </c>
+      <c r="B99" s="1">
+        <v>94</v>
+      </c>
+      <c r="C99" s="3">
         <v>101</v>
       </c>
-      <c r="B91" s="1">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>95</v>
+      </c>
+      <c r="B100" s="1">
+        <v>100</v>
+      </c>
+      <c r="C100" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>224</v>
+      </c>
+      <c r="B101" s="1">
+        <v>232</v>
+      </c>
+      <c r="C101" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>251</v>
+      </c>
+      <c r="B102" s="1">
+        <v>255</v>
+      </c>
+      <c r="C102" s="3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>274</v>
+      </c>
+      <c r="B103" s="1">
+        <v>281</v>
+      </c>
+      <c r="C103" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>313</v>
+      </c>
+      <c r="B104" s="1">
+        <v>317</v>
+      </c>
+      <c r="C104" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>329</v>
+      </c>
+      <c r="B105" s="1">
+        <v>333</v>
+      </c>
+      <c r="C105" s="3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>11</v>
+      </c>
+      <c r="B106" s="1">
+        <v>16</v>
+      </c>
+      <c r="C106" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>42</v>
+      </c>
+      <c r="B107" s="1">
+        <v>47</v>
+      </c>
+      <c r="C107" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>58</v>
+      </c>
+      <c r="B108">
+        <v>63</v>
+      </c>
+      <c r="C108">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>183</v>
+      </c>
+      <c r="B109">
+        <v>187</v>
+      </c>
+      <c r="C109">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>214</v>
+      </c>
+      <c r="B110">
+        <v>219</v>
+      </c>
+      <c r="C110">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>66</v>
+      </c>
+      <c r="B113">
+        <v>71</v>
+      </c>
+      <c r="C113">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>97</v>
+      </c>
+      <c r="B114">
+        <v>102</v>
+      </c>
+      <c r="C114">
         <v>107</v>
       </c>
-      <c r="C91" s="3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>107</v>
+      </c>
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>125</v>
+      </c>
+      <c r="C116">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>125</v>
+      </c>
+      <c r="C117">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>201</v>
+      </c>
+      <c r="B118">
+        <v>204</v>
+      </c>
+      <c r="C118">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>218</v>
+      </c>
+      <c r="B119">
+        <v>222</v>
+      </c>
+      <c r="C119">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>286</v>
+      </c>
+      <c r="B120">
+        <v>291</v>
+      </c>
+      <c r="C120">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>309</v>
+      </c>
+      <c r="B121">
+        <v>315</v>
+      </c>
+      <c r="C121">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>42</v>
+      </c>
+      <c r="B123">
+        <v>46</v>
+      </c>
+      <c r="C123">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>56</v>
+      </c>
+      <c r="B124">
+        <v>60</v>
+      </c>
+      <c r="C124">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>70</v>
+      </c>
+      <c r="B125">
+        <v>75</v>
+      </c>
+      <c r="C125">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>88</v>
+      </c>
+      <c r="B126">
+        <v>92</v>
+      </c>
+      <c r="C126">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>97</v>
+      </c>
+      <c r="B127">
+        <v>102</v>
+      </c>
+      <c r="C127">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>96</v>
+      </c>
+      <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>136</v>
+      </c>
+      <c r="C130">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>161</v>
+      </c>
+      <c r="B131">
+        <v>166</v>
+      </c>
+      <c r="C131">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>201</v>
+      </c>
+      <c r="B132">
+        <v>206</v>
+      </c>
+      <c r="C132">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>294</v>
+      </c>
+      <c r="B133">
+        <v>298</v>
+      </c>
+      <c r="C133">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>42</v>
+      </c>
+      <c r="B134">
+        <v>47</v>
+      </c>
+      <c r="C134">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>149</v>
+      </c>
+      <c r="B135">
+        <v>154</v>
+      </c>
+      <c r="C135">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>173</v>
+      </c>
+      <c r="B136">
+        <v>179</v>
+      </c>
+      <c r="C136">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>193</v>
+      </c>
+      <c r="B137">
+        <v>197</v>
+      </c>
+      <c r="C137">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>221</v>
+      </c>
+      <c r="B138">
+        <v>226</v>
+      </c>
+      <c r="C138">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>229</v>
+      </c>
+      <c r="B139">
+        <v>233</v>
+      </c>
+      <c r="C139">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>372</v>
+      </c>
+      <c r="B140">
+        <v>376</v>
+      </c>
+      <c r="C140">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>52</v>
+      </c>
+      <c r="B141">
+        <v>56</v>
+      </c>
+      <c r="C141">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>203</v>
+      </c>
+      <c r="B142">
+        <v>208</v>
+      </c>
+      <c r="C142">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>235</v>
+      </c>
+      <c r="B143">
+        <v>239</v>
+      </c>
+      <c r="C143">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>239</v>
+      </c>
+      <c r="B144">
+        <v>243</v>
+      </c>
+      <c r="C144">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>311</v>
+      </c>
+      <c r="B145">
+        <v>316</v>
+      </c>
+      <c r="C145">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>336</v>
+      </c>
+      <c r="B146">
+        <v>341</v>
+      </c>
+      <c r="C146">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>356</v>
+      </c>
+      <c r="B147">
+        <v>361</v>
+      </c>
+      <c r="C147">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>40</v>
+      </c>
+      <c r="B148">
+        <v>44</v>
+      </c>
+      <c r="C148">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>87</v>
+      </c>
+      <c r="B149">
+        <v>92</v>
+      </c>
+      <c r="C149">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>159</v>
+      </c>
+      <c r="C150">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>159</v>
+      </c>
+      <c r="B151">
+        <v>163</v>
+      </c>
+      <c r="C151">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>248</v>
+      </c>
+      <c r="B152">
+        <v>252</v>
+      </c>
+      <c r="C152">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>297</v>
+      </c>
+      <c r="B153">
+        <v>301</v>
+      </c>
+      <c r="C153">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>297</v>
+      </c>
+      <c r="B154">
+        <v>303</v>
+      </c>
+      <c r="C154">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>60</v>
+      </c>
+      <c r="B155">
+        <v>65</v>
+      </c>
+      <c r="C155">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>78</v>
+      </c>
+      <c r="B156">
+        <v>82</v>
+      </c>
+      <c r="C156">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>97</v>
+      </c>
+      <c r="B157">
+        <v>102</v>
+      </c>
+      <c r="C157">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>143</v>
+      </c>
+      <c r="B158">
+        <v>148</v>
+      </c>
+      <c r="C158">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>217</v>
+      </c>
+      <c r="B159">
+        <v>221</v>
+      </c>
+      <c r="C159">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>253</v>
+      </c>
+      <c r="B160">
+        <v>257</v>
+      </c>
+      <c r="C160">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>79</v>
+      </c>
+      <c r="B162">
+        <v>82</v>
+      </c>
+      <c r="C162">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>97</v>
+      </c>
+      <c r="B163">
+        <v>104</v>
+      </c>
+      <c r="C163">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>110</v>
+      </c>
+      <c r="B164">
+        <v>114</v>
+      </c>
+      <c r="C164">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>143</v>
+      </c>
+      <c r="B165">
+        <v>148</v>
+      </c>
+      <c r="C165">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>343</v>
+      </c>
+      <c r="B166">
+        <v>347</v>
+      </c>
+      <c r="C166">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>54</v>
+      </c>
+      <c r="B168">
+        <v>58</v>
+      </c>
+      <c r="C168">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>71</v>
+      </c>
+      <c r="B169">
+        <v>75</v>
+      </c>
+      <c r="C169">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>74</v>
+      </c>
+      <c r="B170">
+        <v>79</v>
+      </c>
+      <c r="C170">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>92</v>
+      </c>
+      <c r="B171">
+        <v>96</v>
+      </c>
+      <c r="C171">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>94</v>
+      </c>
+      <c r="B172">
+        <v>99</v>
+      </c>
+      <c r="C172">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>217</v>
+      </c>
+      <c r="B173">
+        <v>221</v>
+      </c>
+      <c r="C173">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>234</v>
+      </c>
+      <c r="B174">
+        <v>239</v>
+      </c>
+      <c r="C174">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>289</v>
+      </c>
+      <c r="B175">
+        <v>292</v>
+      </c>
+      <c r="C175">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>25</v>
+      </c>
+      <c r="B176">
+        <v>30</v>
+      </c>
+      <c r="C176">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>37</v>
+      </c>
+      <c r="B177">
+        <v>41</v>
+      </c>
+      <c r="C177">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>47</v>
+      </c>
+      <c r="B178">
+        <v>52</v>
+      </c>
+      <c r="C178">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>148</v>
+      </c>
+      <c r="B179">
+        <v>152</v>
+      </c>
+      <c r="C179">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>269</v>
+      </c>
+      <c r="B180">
+        <v>273</v>
+      </c>
+      <c r="C180">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>312</v>
+      </c>
+      <c r="B181">
+        <v>316</v>
+      </c>
+      <c r="C181">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>369</v>
+      </c>
+      <c r="B182">
+        <v>373</v>
+      </c>
+      <c r="C182">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>27</v>
+      </c>
+      <c r="B183">
+        <v>32</v>
+      </c>
+      <c r="C183">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>65</v>
+      </c>
+      <c r="B184">
+        <v>69</v>
+      </c>
+      <c r="C184">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>228</v>
+      </c>
+      <c r="B185">
+        <v>233</v>
+      </c>
+      <c r="C185">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>257</v>
+      </c>
+      <c r="B186">
+        <v>261</v>
+      </c>
+      <c r="C186">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>332</v>
+      </c>
+      <c r="B187">
+        <v>336</v>
+      </c>
+      <c r="C187">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>370</v>
+      </c>
+      <c r="B188">
+        <v>374</v>
+      </c>
+      <c r="C188">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189">
+        <v>20</v>
+      </c>
+      <c r="C189">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>93</v>
+      </c>
+      <c r="B190">
+        <v>97</v>
+      </c>
+      <c r="C190">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>260</v>
+      </c>
+      <c r="B191">
+        <v>265</v>
+      </c>
+      <c r="C191">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>276</v>
+      </c>
+      <c r="B192">
+        <v>280</v>
+      </c>
+      <c r="C192">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>283</v>
+      </c>
+      <c r="B193">
+        <v>287</v>
+      </c>
+      <c r="C193">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194">
+        <v>29</v>
+      </c>
+      <c r="C194">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>37</v>
+      </c>
+      <c r="B196">
+        <v>41</v>
+      </c>
+      <c r="C196">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>45</v>
+      </c>
+      <c r="B197">
+        <v>50</v>
+      </c>
+      <c r="C197">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>54</v>
+      </c>
+      <c r="B198">
+        <v>58</v>
+      </c>
+      <c r="C198">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>62</v>
+      </c>
+      <c r="B199">
+        <v>67</v>
+      </c>
+      <c r="C199">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>43</v>
+      </c>
+      <c r="B200">
+        <v>48</v>
+      </c>
+      <c r="C200">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>15</v>
+      </c>
+      <c r="B201">
+        <v>21</v>
+      </c>
+      <c r="C201">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>50</v>
+      </c>
+      <c r="B202">
+        <v>57</v>
+      </c>
+      <c r="C202">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>18</v>
+      </c>
+      <c r="C203">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="B204">
+        <v>17</v>
+      </c>
+      <c r="C204">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>35</v>
+      </c>
+      <c r="B205">
+        <v>41</v>
+      </c>
+      <c r="C205">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206">
+        <v>20</v>
+      </c>
+      <c r="C206">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>28</v>
+      </c>
+      <c r="B207">
+        <v>33</v>
+      </c>
+      <c r="C207">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>31</v>
+      </c>
+      <c r="B208">
+        <v>35</v>
+      </c>
+      <c r="C208">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
+      </c>
+      <c r="C210">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>38</v>
+      </c>
+      <c r="B212">
+        <v>42</v>
+      </c>
+      <c r="C212">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>57</v>
+      </c>
+      <c r="B213">
+        <v>63</v>
+      </c>
+      <c r="C213">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>27</v>
+      </c>
+      <c r="B214">
+        <v>33</v>
+      </c>
+      <c r="C214">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>32</v>
+      </c>
+      <c r="B215">
+        <v>36</v>
+      </c>
+      <c r="C215">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>51</v>
+      </c>
+      <c r="B216">
+        <v>56</v>
+      </c>
+      <c r="C216">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>11</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>61</v>
+      </c>
+      <c r="B218">
+        <v>67</v>
+      </c>
+      <c r="C218">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>19</v>
+      </c>
+      <c r="B219">
+        <v>24</v>
+      </c>
+      <c r="C219">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>28</v>
+      </c>
+      <c r="B220">
+        <v>33</v>
+      </c>
+      <c r="C220">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>57</v>
+      </c>
+      <c r="B221">
+        <v>61</v>
+      </c>
+      <c r="C221">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>57</v>
+      </c>
+      <c r="B222">
+        <v>63</v>
+      </c>
+      <c r="C222">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>44</v>
+      </c>
+      <c r="B223">
+        <v>48</v>
+      </c>
+      <c r="C223">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>58</v>
+      </c>
+      <c r="B224">
+        <v>63</v>
+      </c>
+      <c r="C224">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>52</v>
+      </c>
+      <c r="B225">
+        <v>58</v>
+      </c>
+      <c r="C225">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>42</v>
+      </c>
+      <c r="B226">
+        <v>46</v>
+      </c>
+      <c r="C226">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>69</v>
+      </c>
+      <c r="B227">
+        <v>74</v>
+      </c>
+      <c r="C227">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>86</v>
+      </c>
+      <c r="B228">
+        <v>91</v>
+      </c>
+      <c r="C228">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>101</v>
+      </c>
+      <c r="B229">
+        <v>106</v>
+      </c>
+      <c r="C229">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>107</v>
+      </c>
+      <c r="B230">
+        <v>113</v>
+      </c>
+      <c r="C230">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>22</v>
+      </c>
+      <c r="B231">
+        <v>27</v>
+      </c>
+      <c r="C231">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>78</v>
+      </c>
+      <c r="B232">
+        <v>82</v>
+      </c>
+      <c r="C232">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>37</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>71</v>
+      </c>
+      <c r="B235">
+        <v>76</v>
+      </c>
+      <c r="C235">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>78</v>
+      </c>
+      <c r="B236">
+        <v>84</v>
+      </c>
+      <c r="C236">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>85</v>
+      </c>
+      <c r="B237">
+        <v>90</v>
+      </c>
+      <c r="C237">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>116</v>
+      </c>
+      <c r="B238">
+        <v>121</v>
+      </c>
+      <c r="C238">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>34</v>
+      </c>
+      <c r="B239">
+        <v>37</v>
+      </c>
+      <c r="C239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>37</v>
+      </c>
+      <c r="B240">
+        <v>41</v>
+      </c>
+      <c r="C240">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>47</v>
+      </c>
+      <c r="B241">
+        <v>51</v>
+      </c>
+      <c r="C241">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>49</v>
+      </c>
+      <c r="B242">
+        <v>53</v>
+      </c>
+      <c r="C242">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>99</v>
+      </c>
+      <c r="B243">
+        <v>102</v>
+      </c>
+      <c r="C243">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>87</v>
+      </c>
+      <c r="B244">
+        <v>91</v>
+      </c>
+      <c r="C244">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>8</v>
+      </c>
+      <c r="C246">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>37</v>
+      </c>
+      <c r="B247">
+        <v>42</v>
+      </c>
+      <c r="C247">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>45</v>
+      </c>
+      <c r="B248">
+        <v>50</v>
+      </c>
+      <c r="C248">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>63</v>
+      </c>
+      <c r="B249">
+        <v>69</v>
+      </c>
+      <c r="C249">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>65</v>
+      </c>
+      <c r="B250">
+        <v>70</v>
+      </c>
+      <c r="C250">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>96</v>
+      </c>
+      <c r="B251">
+        <v>100</v>
+      </c>
+      <c r="C251">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>97</v>
+      </c>
+      <c r="B252">
+        <v>101</v>
+      </c>
+      <c r="C252">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>112</v>
+      </c>
+      <c r="B253">
+        <v>117</v>
+      </c>
+      <c r="C253">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>9</v>
+      </c>
+      <c r="C254">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>38</v>
+      </c>
+      <c r="B255">
+        <v>42</v>
+      </c>
+      <c r="C255">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
         <v>119</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="3"/>
+      <c r="B256">
+        <v>123</v>
+      </c>
+      <c r="C256">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>46</v>
+      </c>
+      <c r="B257">
+        <v>51</v>
+      </c>
+      <c r="C257">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>76</v>
+      </c>
+      <c r="B258">
+        <v>80</v>
+      </c>
+      <c r="C258">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>42</v>
+      </c>
+      <c r="B259">
+        <v>47</v>
+      </c>
+      <c r="C259">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>11</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>49</v>
+      </c>
+      <c r="B261">
+        <v>53</v>
+      </c>
+      <c r="C261">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>80</v>
+      </c>
+      <c r="B262">
+        <v>85</v>
+      </c>
+      <c r="C262">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>11</v>
+      </c>
+      <c r="B263">
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>52</v>
+      </c>
+      <c r="B264">
+        <v>58</v>
+      </c>
+      <c r="C264">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>75</v>
+      </c>
+      <c r="B265">
+        <v>80</v>
+      </c>
+      <c r="C265">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>75</v>
+      </c>
+      <c r="B266">
+        <v>79</v>
+      </c>
+      <c r="C266">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E031C8B9-308B-E546-BDB0-59C9179C2D81}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,838 +3351,838 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
-        <v>139</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3">
-        <v>279</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1">
         <v>69</v>
       </c>
-      <c r="B7" s="1">
-        <v>74</v>
-      </c>
       <c r="C7" s="3">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3">
-        <v>266</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3">
-        <v>97</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C12" s="3">
-        <v>47</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="C13" s="3">
-        <v>124</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="B14" s="1">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C14" s="3">
-        <v>263</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="B15" s="1">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C15" s="3">
-        <v>39</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="B16" s="1">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="C16" s="3">
-        <v>68</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="B17" s="1">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="C17" s="3">
-        <v>37</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3">
-        <v>185</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3">
-        <v>312</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3">
-        <v>293</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C29" s="3">
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="B31" s="1">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C31" s="3">
-        <v>49</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="B32" s="1">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="C32" s="3">
-        <v>34</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="B33" s="1">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="C33" s="3">
-        <v>40</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="C34" s="3">
-        <v>55</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="B35" s="1">
-        <v>49</v>
+        <v>373</v>
       </c>
       <c r="C35" s="3">
-        <v>54</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="B36" s="1">
-        <v>16</v>
+        <v>385</v>
       </c>
       <c r="C36" s="3">
-        <v>26</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C39" s="3">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="C44" s="3">
-        <v>277</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3">
-        <v>56</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="B46" s="1">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="C46" s="3">
-        <v>128</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="B47" s="1">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="C47" s="3">
-        <v>45</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="B48" s="1">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="C48" s="3">
-        <v>87</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="B49" s="1">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="C49" s="3">
-        <v>89</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="3">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C54" s="3">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C55" s="3">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C56" s="3">
-        <v>44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="B57" s="1">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="C57" s="3">
-        <v>47</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="B58" s="1">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="C58" s="3">
-        <v>74</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="B59" s="1">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="C59" s="3">
-        <v>85</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="B60" s="1">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="C60" s="3">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C61" s="3">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B62" s="1">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C62" s="3">
-        <v>103</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="C63" s="3">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="B64" s="1">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="C64" s="3">
-        <v>50</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="B65" s="1">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C65" s="3">
-        <v>111</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="B66" s="1">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C66" s="3">
-        <v>134</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="B67" s="1">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="C67" s="3">
-        <v>167</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>168</v>
+        <v>372</v>
       </c>
       <c r="B68" s="1">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="C68" s="3">
-        <v>177</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="B69" s="1">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="C69" s="3">
-        <v>201</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C70" s="3">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C71" s="3">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B72" s="1">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="C72" s="3">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="C73" s="3">
-        <v>288</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C74" s="3">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C75" s="3">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B76" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="3">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B77" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C77" s="3">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,142 +4190,2673 @@
         <v>150</v>
       </c>
       <c r="B78" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B79" s="1">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C79" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C80" s="3">
-        <v>173</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="B81" s="1">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="C81" s="3">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="B82" s="1">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="C82" s="3">
-        <v>118</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B83" s="1">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C83" s="3">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C84" s="3">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C85" s="3">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B86" s="1">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C86" s="3">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="B87" s="1">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="C87" s="3">
-        <v>101</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="B88" s="1">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="C88" s="3">
-        <v>64</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1">
+        <v>26</v>
+      </c>
+      <c r="C89" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>66</v>
+      </c>
+      <c r="B90" s="1">
+        <v>71</v>
+      </c>
+      <c r="C90" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>238</v>
+      </c>
+      <c r="B91" s="1">
+        <v>243</v>
+      </c>
+      <c r="C91" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>310</v>
+      </c>
+      <c r="B92">
+        <v>315</v>
+      </c>
+      <c r="C92">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>355</v>
+      </c>
+      <c r="B93">
+        <v>360</v>
+      </c>
+      <c r="C93">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>42</v>
+      </c>
+      <c r="B95">
+        <v>47</v>
+      </c>
+      <c r="C95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>128</v>
+      </c>
+      <c r="B96">
+        <v>132</v>
+      </c>
+      <c r="C96">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>202</v>
+      </c>
+      <c r="B97">
+        <v>208</v>
+      </c>
+      <c r="C97">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>223</v>
+      </c>
+      <c r="B98">
+        <v>228</v>
+      </c>
+      <c r="C98">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>236</v>
+      </c>
+      <c r="B99">
+        <v>241</v>
+      </c>
+      <c r="C99">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>240</v>
+      </c>
+      <c r="B100">
+        <v>244</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>289</v>
+      </c>
+      <c r="B101">
+        <v>294</v>
+      </c>
+      <c r="C101">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>333</v>
+      </c>
+      <c r="B102">
+        <v>337</v>
+      </c>
+      <c r="C102">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+      <c r="C103">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>187</v>
+      </c>
+      <c r="B104">
+        <v>191</v>
+      </c>
+      <c r="C104">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>213</v>
+      </c>
+      <c r="B105">
+        <v>218</v>
+      </c>
+      <c r="C105">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>251</v>
+      </c>
+      <c r="B106">
+        <v>256</v>
+      </c>
+      <c r="C106">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>350</v>
+      </c>
+      <c r="B107">
+        <v>354</v>
+      </c>
+      <c r="C107">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>351</v>
+      </c>
+      <c r="B108">
+        <v>355</v>
+      </c>
+      <c r="C108">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>43</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>49</v>
+      </c>
+      <c r="B110">
+        <v>53</v>
+      </c>
+      <c r="C110">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>200</v>
+      </c>
+      <c r="B111">
+        <v>205</v>
+      </c>
+      <c r="C111">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>244</v>
+      </c>
+      <c r="B112">
+        <v>248</v>
+      </c>
+      <c r="C112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>282</v>
+      </c>
+      <c r="B113">
+        <v>288</v>
+      </c>
+      <c r="C113">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>27</v>
+      </c>
+      <c r="B115">
+        <v>31</v>
+      </c>
+      <c r="C115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>51</v>
+      </c>
+      <c r="B116">
+        <v>55</v>
+      </c>
+      <c r="C116">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>82</v>
+      </c>
+      <c r="B117">
+        <v>86</v>
+      </c>
+      <c r="C117">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>152</v>
+      </c>
+      <c r="B118">
+        <v>158</v>
+      </c>
+      <c r="C118">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>156</v>
+      </c>
+      <c r="B119">
+        <v>161</v>
+      </c>
+      <c r="C119">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>201</v>
+      </c>
+      <c r="B120">
+        <v>207</v>
+      </c>
+      <c r="C120">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>264</v>
+      </c>
+      <c r="B121">
+        <v>268</v>
+      </c>
+      <c r="C121">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>280</v>
+      </c>
+      <c r="B122">
+        <v>284</v>
+      </c>
+      <c r="C122">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>296</v>
+      </c>
+      <c r="B123">
+        <v>302</v>
+      </c>
+      <c r="C123">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>341</v>
+      </c>
+      <c r="B124">
+        <v>346</v>
+      </c>
+      <c r="C124">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>46</v>
+      </c>
+      <c r="B129">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>145</v>
       </c>
-      <c r="C89" s="3">
+      <c r="B130">
+        <v>149</v>
+      </c>
+      <c r="C130">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>207</v>
+      </c>
+      <c r="B131">
+        <v>212</v>
+      </c>
+      <c r="C131">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>258</v>
+      </c>
+      <c r="B132">
+        <v>263</v>
+      </c>
+      <c r="C132">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>262</v>
+      </c>
+      <c r="B133">
+        <v>267</v>
+      </c>
+      <c r="C133">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>280</v>
+      </c>
+      <c r="B134">
+        <v>284</v>
+      </c>
+      <c r="C134">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>305</v>
+      </c>
+      <c r="B135">
+        <v>310</v>
+      </c>
+      <c r="C135">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>24</v>
+      </c>
+      <c r="B137">
+        <v>28</v>
+      </c>
+      <c r="C137">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138">
+        <v>32</v>
+      </c>
+      <c r="C138">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>57</v>
+      </c>
+      <c r="B139">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>63</v>
+      </c>
+      <c r="B140">
+        <v>68</v>
+      </c>
+      <c r="C140">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>72</v>
+      </c>
+      <c r="B141">
+        <v>77</v>
+      </c>
+      <c r="C141">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>188</v>
+      </c>
+      <c r="B142">
+        <v>192</v>
+      </c>
+      <c r="C142">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>239</v>
+      </c>
+      <c r="B143">
+        <v>245</v>
+      </c>
+      <c r="C143">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>283</v>
+      </c>
+      <c r="B144">
+        <v>287</v>
+      </c>
+      <c r="C144">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>323</v>
+      </c>
+      <c r="B145">
+        <v>329</v>
+      </c>
+      <c r="C145">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>18</v>
+      </c>
+      <c r="C146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>59</v>
+      </c>
+      <c r="B147">
+        <v>65</v>
+      </c>
+      <c r="C147">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>89</v>
+      </c>
+      <c r="B148">
+        <v>94</v>
+      </c>
+      <c r="C148">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>118</v>
+      </c>
+      <c r="B149">
+        <v>124</v>
+      </c>
+      <c r="C149">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>137</v>
+      </c>
+      <c r="B150">
+        <v>142</v>
+      </c>
+      <c r="C150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>154</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="3"/>
+      <c r="B151">
+        <v>159</v>
+      </c>
+      <c r="C151">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>159</v>
+      </c>
+      <c r="C152">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>296</v>
+      </c>
+      <c r="B153">
+        <v>304</v>
+      </c>
+      <c r="C153">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>356</v>
+      </c>
+      <c r="B154">
+        <v>362</v>
+      </c>
+      <c r="C154">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>46</v>
+      </c>
+      <c r="B155">
+        <v>51</v>
+      </c>
+      <c r="C155">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>76</v>
+      </c>
+      <c r="B156">
+        <v>82</v>
+      </c>
+      <c r="C156">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>99</v>
+      </c>
+      <c r="B157">
+        <v>103</v>
+      </c>
+      <c r="C157">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>114</v>
+      </c>
+      <c r="B158">
+        <v>121</v>
+      </c>
+      <c r="C158">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>146</v>
+      </c>
+      <c r="B159">
+        <v>151</v>
+      </c>
+      <c r="C159">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>173</v>
+      </c>
+      <c r="C160">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>188</v>
+      </c>
+      <c r="B161">
+        <v>193</v>
+      </c>
+      <c r="C161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>279</v>
+      </c>
+      <c r="B162">
+        <v>283</v>
+      </c>
+      <c r="C162">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>311</v>
+      </c>
+      <c r="B163">
+        <v>316</v>
+      </c>
+      <c r="C163">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>34</v>
+      </c>
+      <c r="B164">
+        <v>38</v>
+      </c>
+      <c r="C164">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>67</v>
+      </c>
+      <c r="B165">
+        <v>71</v>
+      </c>
+      <c r="C165">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>70</v>
+      </c>
+      <c r="B166">
+        <v>74</v>
+      </c>
+      <c r="C166">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>131</v>
+      </c>
+      <c r="B167">
+        <v>136</v>
+      </c>
+      <c r="C167">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>243</v>
+      </c>
+      <c r="B168">
+        <v>247</v>
+      </c>
+      <c r="C168">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>254</v>
+      </c>
+      <c r="B169">
+        <v>259</v>
+      </c>
+      <c r="C169">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>327</v>
+      </c>
+      <c r="B170">
+        <v>334</v>
+      </c>
+      <c r="C170">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171">
+        <v>22</v>
+      </c>
+      <c r="C171">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>42</v>
+      </c>
+      <c r="B173">
+        <v>48</v>
+      </c>
+      <c r="C173">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>51</v>
+      </c>
+      <c r="B174">
+        <v>56</v>
+      </c>
+      <c r="C174">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>113</v>
+      </c>
+      <c r="B175">
+        <v>119</v>
+      </c>
+      <c r="C175">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>138</v>
+      </c>
+      <c r="B176">
+        <v>143</v>
+      </c>
+      <c r="C176">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>167</v>
+      </c>
+      <c r="B177">
+        <v>172</v>
+      </c>
+      <c r="C177">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>194</v>
+      </c>
+      <c r="B178">
+        <v>198</v>
+      </c>
+      <c r="C178">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>222</v>
+      </c>
+      <c r="B179">
+        <v>230</v>
+      </c>
+      <c r="C179">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>350</v>
+      </c>
+      <c r="B180">
+        <v>355</v>
+      </c>
+      <c r="C180">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>64</v>
+      </c>
+      <c r="B181">
+        <v>70</v>
+      </c>
+      <c r="C181">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>100</v>
+      </c>
+      <c r="B182">
+        <v>105</v>
+      </c>
+      <c r="C182">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>168</v>
+      </c>
+      <c r="B183">
+        <v>172</v>
+      </c>
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>228</v>
+      </c>
+      <c r="B184">
+        <v>236</v>
+      </c>
+      <c r="C184">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>247</v>
+      </c>
+      <c r="B185">
+        <v>252</v>
+      </c>
+      <c r="C185">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>267</v>
+      </c>
+      <c r="B186">
+        <v>272</v>
+      </c>
+      <c r="C186">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>286</v>
+      </c>
+      <c r="B187">
+        <v>291</v>
+      </c>
+      <c r="C187">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>332</v>
+      </c>
+      <c r="B188">
+        <v>339</v>
+      </c>
+      <c r="C188">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>66</v>
+      </c>
+      <c r="B190">
+        <v>70</v>
+      </c>
+      <c r="C190">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>93</v>
+      </c>
+      <c r="B191">
+        <v>99</v>
+      </c>
+      <c r="C191">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>172</v>
+      </c>
+      <c r="B192">
+        <v>179</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>208</v>
+      </c>
+      <c r="B193">
+        <v>214</v>
+      </c>
+      <c r="C193">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>297</v>
+      </c>
+      <c r="B194">
+        <v>303</v>
+      </c>
+      <c r="C194">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>309</v>
+      </c>
+      <c r="B195">
+        <v>313</v>
+      </c>
+      <c r="C195">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>347</v>
+      </c>
+      <c r="B196">
+        <v>353</v>
+      </c>
+      <c r="C196">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>347</v>
+      </c>
+      <c r="B197">
+        <v>353</v>
+      </c>
+      <c r="C197">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>28</v>
+      </c>
+      <c r="B198">
+        <v>34</v>
+      </c>
+      <c r="C198">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>21</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+      <c r="C199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>44</v>
+      </c>
+      <c r="B200">
+        <v>49</v>
+      </c>
+      <c r="C200">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>49</v>
+      </c>
+      <c r="B201">
+        <v>54</v>
+      </c>
+      <c r="C201">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>16</v>
+      </c>
+      <c r="B202">
+        <v>21</v>
+      </c>
+      <c r="C202">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>18</v>
+      </c>
+      <c r="C203">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>14</v>
+      </c>
+      <c r="C204">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>54</v>
+      </c>
+      <c r="B205">
+        <v>60</v>
+      </c>
+      <c r="C205">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>29</v>
+      </c>
+      <c r="B206">
+        <v>35</v>
+      </c>
+      <c r="C206">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>32</v>
+      </c>
+      <c r="B207">
+        <v>36</v>
+      </c>
+      <c r="C207">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>40</v>
+      </c>
+      <c r="B208">
+        <v>45</v>
+      </c>
+      <c r="C208">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>46</v>
+      </c>
+      <c r="B209">
+        <v>51</v>
+      </c>
+      <c r="C209">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>53</v>
+      </c>
+      <c r="B210">
+        <v>58</v>
+      </c>
+      <c r="C210">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>11</v>
+      </c>
+      <c r="B212">
+        <v>18</v>
+      </c>
+      <c r="C212">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>12</v>
+      </c>
+      <c r="B213">
+        <v>17</v>
+      </c>
+      <c r="C213">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>52</v>
+      </c>
+      <c r="B214">
+        <v>58</v>
+      </c>
+      <c r="C214">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>33</v>
+      </c>
+      <c r="B215">
+        <v>39</v>
+      </c>
+      <c r="C215">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>31</v>
+      </c>
+      <c r="B216">
+        <v>35</v>
+      </c>
+      <c r="C216">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>27</v>
+      </c>
+      <c r="B217">
+        <v>32</v>
+      </c>
+      <c r="C217">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>25</v>
+      </c>
+      <c r="B218">
+        <v>30</v>
+      </c>
+      <c r="C218">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>22</v>
+      </c>
+      <c r="B220">
+        <v>26</v>
+      </c>
+      <c r="C220">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>30</v>
+      </c>
+      <c r="B221">
+        <v>35</v>
+      </c>
+      <c r="C221">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>31</v>
+      </c>
+      <c r="B222">
+        <v>35</v>
+      </c>
+      <c r="C222">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>26</v>
+      </c>
+      <c r="B224">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>46</v>
+      </c>
+      <c r="B225">
+        <v>51</v>
+      </c>
+      <c r="C225">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>51</v>
+      </c>
+      <c r="B226">
+        <v>58</v>
+      </c>
+      <c r="C226">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>44</v>
+      </c>
+      <c r="B229">
+        <v>49</v>
+      </c>
+      <c r="C229">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>23</v>
+      </c>
+      <c r="B231">
+        <v>27</v>
+      </c>
+      <c r="C231">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>34</v>
+      </c>
+      <c r="B232">
+        <v>39</v>
+      </c>
+      <c r="C232">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>17</v>
+      </c>
+      <c r="B233">
+        <v>27</v>
+      </c>
+      <c r="C233">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>46</v>
+      </c>
+      <c r="B234">
+        <v>51</v>
+      </c>
+      <c r="C234">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>53</v>
+      </c>
+      <c r="B235">
+        <v>57</v>
+      </c>
+      <c r="C235">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>16</v>
+      </c>
+      <c r="B236">
+        <v>21</v>
+      </c>
+      <c r="C236">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>31</v>
+      </c>
+      <c r="B237">
+        <v>37</v>
+      </c>
+      <c r="C237">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>57</v>
+      </c>
+      <c r="B238">
+        <v>65</v>
+      </c>
+      <c r="C238">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>29</v>
+      </c>
+      <c r="B239">
+        <v>35</v>
+      </c>
+      <c r="C239">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>24</v>
+      </c>
+      <c r="B240">
+        <v>31</v>
+      </c>
+      <c r="C240">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>48</v>
+      </c>
+      <c r="B241">
+        <v>54</v>
+      </c>
+      <c r="C241">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>57</v>
+      </c>
+      <c r="B242">
+        <v>62</v>
+      </c>
+      <c r="C242">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>36</v>
+      </c>
+      <c r="B243">
+        <v>41</v>
+      </c>
+      <c r="C243">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>39</v>
+      </c>
+      <c r="B244">
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>23</v>
+      </c>
+      <c r="B245">
+        <v>29</v>
+      </c>
+      <c r="C245">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>36</v>
+      </c>
+      <c r="B246">
+        <v>41</v>
+      </c>
+      <c r="C246">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>38</v>
+      </c>
+      <c r="B247">
+        <v>44</v>
+      </c>
+      <c r="C247">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>51</v>
+      </c>
+      <c r="B248">
+        <v>56</v>
+      </c>
+      <c r="C248">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>14</v>
+      </c>
+      <c r="B249">
+        <v>20</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>24</v>
+      </c>
+      <c r="B250">
+        <v>28</v>
+      </c>
+      <c r="C250">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>31</v>
+      </c>
+      <c r="B251">
+        <v>36</v>
+      </c>
+      <c r="C251">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>52</v>
+      </c>
+      <c r="B252">
+        <v>57</v>
+      </c>
+      <c r="C252">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>74</v>
+      </c>
+      <c r="B253">
+        <v>77</v>
+      </c>
+      <c r="C253">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>75</v>
+      </c>
+      <c r="B254">
+        <v>85</v>
+      </c>
+      <c r="C254">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>75</v>
+      </c>
+      <c r="B255">
+        <v>84</v>
+      </c>
+      <c r="C255">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>104</v>
+      </c>
+      <c r="B256">
+        <v>108</v>
+      </c>
+      <c r="C256">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>36</v>
+      </c>
+      <c r="B257">
+        <v>41</v>
+      </c>
+      <c r="C257">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>61</v>
+      </c>
+      <c r="B258">
+        <v>66</v>
+      </c>
+      <c r="C258">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>72</v>
+      </c>
+      <c r="B259">
+        <v>76</v>
+      </c>
+      <c r="C259">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <v>11</v>
+      </c>
+      <c r="C260">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>17</v>
+      </c>
+      <c r="B261">
+        <v>21</v>
+      </c>
+      <c r="C261">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>19</v>
+      </c>
+      <c r="B262">
+        <v>23</v>
+      </c>
+      <c r="C262">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>28</v>
+      </c>
+      <c r="B263">
+        <v>34</v>
+      </c>
+      <c r="C263">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>73</v>
+      </c>
+      <c r="B264">
+        <v>78</v>
+      </c>
+      <c r="C264">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>105</v>
+      </c>
+      <c r="B265">
+        <v>111</v>
+      </c>
+      <c r="C265">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>23</v>
+      </c>
+      <c r="B266">
+        <v>27</v>
+      </c>
+      <c r="C266">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>28</v>
+      </c>
+      <c r="B267">
+        <v>31</v>
+      </c>
+      <c r="C267">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>35</v>
+      </c>
+      <c r="B268">
+        <v>42</v>
+      </c>
+      <c r="C268">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>71</v>
+      </c>
+      <c r="B269">
+        <v>78</v>
+      </c>
+      <c r="C269">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>27</v>
+      </c>
+      <c r="B270">
+        <v>31</v>
+      </c>
+      <c r="C270">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>10</v>
+      </c>
+      <c r="B271">
+        <v>15</v>
+      </c>
+      <c r="C271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>54</v>
+      </c>
+      <c r="B272">
+        <v>60</v>
+      </c>
+      <c r="C272">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>70</v>
+      </c>
+      <c r="B273">
+        <v>75</v>
+      </c>
+      <c r="C273">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>87</v>
+      </c>
+      <c r="B274">
+        <v>91</v>
+      </c>
+      <c r="C274">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>92</v>
+      </c>
+      <c r="B275">
+        <v>100</v>
+      </c>
+      <c r="C275">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>33</v>
+      </c>
+      <c r="B276">
+        <v>39</v>
+      </c>
+      <c r="C276">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>58</v>
+      </c>
+      <c r="B277">
+        <v>63</v>
+      </c>
+      <c r="C277">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>72</v>
+      </c>
+      <c r="B278">
+        <v>78</v>
+      </c>
+      <c r="C278">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>112</v>
+      </c>
+      <c r="B279">
+        <v>116</v>
+      </c>
+      <c r="C279">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>29</v>
+      </c>
+      <c r="B280">
+        <v>34</v>
+      </c>
+      <c r="C280">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>17</v>
+      </c>
+      <c r="B281">
+        <v>23</v>
+      </c>
+      <c r="C281">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>50</v>
+      </c>
+      <c r="B282">
+        <v>56</v>
+      </c>
+      <c r="C282">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>18</v>
+      </c>
+      <c r="B283">
+        <v>23</v>
+      </c>
+      <c r="C283">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>39</v>
+      </c>
+      <c r="B284">
+        <v>44</v>
+      </c>
+      <c r="C284">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>82</v>
+      </c>
+      <c r="B285">
+        <v>88</v>
+      </c>
+      <c r="C285">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>27</v>
+      </c>
+      <c r="B286">
+        <v>33</v>
+      </c>
+      <c r="C286">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>36</v>
+      </c>
+      <c r="B287">
+        <v>42</v>
+      </c>
+      <c r="C287">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>40</v>
+      </c>
+      <c r="B288">
+        <v>45</v>
+      </c>
+      <c r="C288">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>53</v>
+      </c>
+      <c r="B289">
+        <v>57</v>
+      </c>
+      <c r="C289">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>77</v>
+      </c>
+      <c r="B290">
+        <v>81</v>
+      </c>
+      <c r="C290">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>23</v>
+      </c>
+      <c r="B291">
+        <v>29</v>
+      </c>
+      <c r="C291">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>64</v>
+      </c>
+      <c r="B292">
+        <v>70</v>
+      </c>
+      <c r="C292">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>76</v>
+      </c>
+      <c r="B293">
+        <v>81</v>
+      </c>
+      <c r="C293">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>107</v>
+      </c>
+      <c r="B294">
+        <v>112</v>
+      </c>
+      <c r="C294">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>108</v>
+      </c>
+      <c r="B295">
+        <v>112</v>
+      </c>
+      <c r="C295">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>25</v>
+      </c>
+      <c r="B296">
+        <v>29</v>
+      </c>
+      <c r="C296">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>42</v>
+      </c>
+      <c r="B297">
+        <v>47</v>
+      </c>
+      <c r="C297">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>42</v>
+      </c>
+      <c r="B298">
+        <v>47</v>
+      </c>
+      <c r="C298">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>25</v>
+      </c>
+      <c r="B299">
+        <v>29</v>
+      </c>
+      <c r="C299">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>31</v>
+      </c>
+      <c r="B300">
+        <v>35</v>
+      </c>
+      <c r="C300">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>59</v>
+      </c>
+      <c r="B301">
+        <v>63</v>
+      </c>
+      <c r="C301">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>74</v>
+      </c>
+      <c r="B302">
+        <v>79</v>
+      </c>
+      <c r="C302">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>103</v>
+      </c>
+      <c r="B303">
+        <v>110</v>
+      </c>
+      <c r="C303">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>53</v>
+      </c>
+      <c r="B304">
+        <v>57</v>
+      </c>
+      <c r="C304">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>69</v>
+      </c>
+      <c r="B305">
+        <v>74</v>
+      </c>
+      <c r="C305">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>30</v>
+      </c>
+      <c r="B306">
+        <v>35</v>
+      </c>
+      <c r="C306">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>34</v>
+      </c>
+      <c r="B307">
+        <v>39</v>
+      </c>
+      <c r="C307">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>45</v>
+      </c>
+      <c r="B308">
+        <v>49</v>
+      </c>
+      <c r="C308">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>53</v>
+      </c>
+      <c r="B309">
+        <v>57</v>
+      </c>
+      <c r="C309">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>76</v>
+      </c>
+      <c r="B310">
+        <v>82</v>
+      </c>
+      <c r="C310">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>105</v>
+      </c>
+      <c r="B311">
+        <v>109</v>
+      </c>
+      <c r="C311">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>105</v>
+      </c>
+      <c r="B312">
+        <v>109</v>
+      </c>
+      <c r="C312">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>34</v>
+      </c>
+      <c r="B313">
+        <v>37</v>
+      </c>
+      <c r="C313">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>34</v>
+      </c>
+      <c r="B314">
+        <v>43</v>
+      </c>
+      <c r="C314">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>53</v>
+      </c>
+      <c r="B315">
+        <v>57</v>
+      </c>
+      <c r="C315">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>58</v>
+      </c>
+      <c r="B316">
+        <v>63</v>
+      </c>
+      <c r="C316">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>68</v>
+      </c>
+      <c r="B317">
+        <v>72</v>
+      </c>
+      <c r="C317">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>7</v>
+      </c>
+      <c r="B318">
+        <v>12</v>
+      </c>
+      <c r="C318">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>21</v>
+      </c>
+      <c r="B319">
+        <v>26</v>
+      </c>
+      <c r="C319">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>89</v>
+      </c>
+      <c r="B320">
+        <v>93</v>
+      </c>
+      <c r="C320">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
